--- a/variables.xlsx
+++ b/variables.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet sheetId="1" name="Sheet1" state="visible" r:id="rId4"/>
     <sheet sheetId="2" name="Sheet2" state="visible" r:id="rId5"/>
+    <sheet sheetId="3" name="Sheet3" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>RCAM</t>
   </si>
@@ -62,37 +63,52 @@
     <t>SRC</t>
   </si>
   <si>
+    <t>zone2</t>
+  </si>
+  <si>
+    <t>DEST</t>
+  </si>
+  <si>
+    <t>zone3</t>
+  </si>
+  <si>
+    <t>NSTAT</t>
+  </si>
+  <si>
+    <t>RSPD</t>
+  </si>
+  <si>
+    <t>POINTS</t>
+  </si>
+  <si>
+    <t>NAMES</t>
+  </si>
+  <si>
     <t>zone1</t>
   </si>
   <si>
-    <t>DEST</t>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>def</t>
+  </si>
+  <si>
+    <t>Board 1</t>
   </si>
   <si>
     <t>zone4</t>
   </si>
   <si>
-    <t>NSTAT</t>
-  </si>
-  <si>
-    <t>RSPD</t>
-  </si>
-  <si>
-    <t>POINTS</t>
-  </si>
-  <si>
-    <t>NAMES</t>
-  </si>
-  <si>
-    <t>zone2</t>
-  </si>
-  <si>
-    <t>zone3</t>
-  </si>
-  <si>
-    <t>Board 1</t>
-  </si>
-  <si>
     <t>Board 2</t>
+  </si>
+  <si>
+    <t>VALUE</t>
+  </si>
+  <si>
+    <t>CMODE</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -416,13 +432,13 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.3" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.45" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" ht="14.4" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -532,10 +548,10 @@
         <v>13</v>
       </c>
       <c r="B16">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" ht="14.45" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" ht="14.4" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -543,7 +559,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" ht="14.45" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" ht="14.4" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -551,7 +567,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" ht="14.45" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" ht="14.4" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -559,7 +575,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" ht="14.45" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" ht="14.4" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -580,7 +596,7 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.3" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -590,30 +606,67 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>22</v>
+      <c r="B3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.3" customHeight="1"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/variables.xlsx
+++ b/variables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet sheetId="1" name="Sheet1" state="visible" r:id="rId4"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
   <si>
     <t>RCAM</t>
   </si>
@@ -69,34 +69,31 @@
     <t>DEST</t>
   </si>
   <si>
+    <t>zone4</t>
+  </si>
+  <si>
+    <t>NSTAT</t>
+  </si>
+  <si>
+    <t>RSPD</t>
+  </si>
+  <si>
+    <t>POINTS</t>
+  </si>
+  <si>
+    <t>NAMES</t>
+  </si>
+  <si>
+    <t>zone1</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>zone3</t>
   </si>
   <si>
-    <t>NSTAT</t>
-  </si>
-  <si>
-    <t>RSPD</t>
-  </si>
-  <si>
-    <t>POINTS</t>
-  </si>
-  <si>
-    <t>NAMES</t>
-  </si>
-  <si>
-    <t>zone1</t>
-  </si>
-  <si>
-    <t>abc</t>
-  </si>
-  <si>
-    <t>def</t>
-  </si>
-  <si>
     <t>Board 1</t>
-  </si>
-  <si>
-    <t>zone4</t>
   </si>
   <si>
     <t>Board 2</t>
@@ -429,21 +426,21 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.3" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" ht="14.45" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -451,7 +448,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -459,7 +456,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -467,7 +464,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -475,7 +472,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -483,7 +480,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -491,7 +488,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -500,7 +497,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.29</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -508,7 +505,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -516,7 +513,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -524,7 +521,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>229</v>
+        <v>255</v>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -532,7 +529,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>155</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -548,10 +545,10 @@
         <v>13</v>
       </c>
       <c r="B16">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" ht="14.4" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" ht="14.45" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -559,7 +556,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" ht="14.4" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" ht="14.45" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -567,7 +564,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" ht="14.4" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" ht="14.45" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -575,12 +572,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" ht="14.4" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" ht="14.45" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>61</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -596,7 +593,7 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.3" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -614,17 +611,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -632,10 +626,10 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
         <v>26</v>
-      </c>
-      <c r="B5" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -651,11 +645,11 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.3" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1">
         <v>10</v>
@@ -663,10 +657,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
         <v>29</v>
-      </c>
-      <c r="B2" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
